--- a/Input/Now_Health/benefits1.xlsx
+++ b/Input/Now_Health/benefits1.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AM$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AM$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="124">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -244,10 +244,10 @@
     <t xml:space="preserve">Covered in full with $</t>
   </si>
   <si>
+    <t xml:space="preserve">Covered in full with $ co-pay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Essential vaccinations as stipulated by MOH with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full up to 30 sessions *Pre-authorization required after 10 visits</t>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t xml:space="preserve">Advance Wellness Opt 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 3,500,001</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to USD 69,001</t>
@@ -407,10 +404,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -444,12 +441,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,7 +485,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,14 +514,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -545,32 +528,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BM10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BH3" activeCellId="0" sqref="BH3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.49"/>
@@ -630,10 +609,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="14.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="59" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,7 +801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="72.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>62</v>
       </c>
@@ -872,13 +849,13 @@
         <v>72</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>75</v>
@@ -902,10 +879,10 @@
       <c r="AC2" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="5" t="s">
         <v>81</v>
       </c>
       <c r="AG2" s="1" t="s">
@@ -968,11 +945,11 @@
       <c r="BF2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BG2" s="9" t="n">
-        <v>45017</v>
-      </c>
-      <c r="BH2" s="10" t="n">
-        <v>45382</v>
+      <c r="BG2" s="7" t="n">
+        <v>45383</v>
+      </c>
+      <c r="BH2" s="8" t="n">
+        <v>45747</v>
       </c>
       <c r="BI2" s="0" t="s">
         <v>90</v>
@@ -990,12 +967,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="72.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>64</v>
@@ -1010,7 +987,7 @@
         <v>67</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>69</v>
@@ -1038,13 +1015,13 @@
         <v>72</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>75</v>
@@ -1068,17 +1045,17 @@
       <c r="AC3" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="5" t="s">
         <v>81</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>75</v>
@@ -1132,27 +1109,27 @@
         <v>88</v>
       </c>
       <c r="BF3" s="4"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="10"/>
-      <c r="BJ3" s="11" t="s">
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="8"/>
+      <c r="BJ3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="BL3" s="0" t="s">
+      <c r="BM3" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="BM3" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>64</v>
@@ -1167,7 +1144,7 @@
         <v>67</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>69</v>
@@ -1195,13 +1172,13 @@
         <v>72</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>75</v>
@@ -1225,17 +1202,17 @@
       <c r="AC4" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>75</v>
@@ -1289,16 +1266,16 @@
         <v>88</v>
       </c>
       <c r="BF4" s="4"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="10"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="8"/>
       <c r="BJ4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>64</v>
@@ -1341,16 +1318,16 @@
         <v>72</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="T5" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="U5" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W5" s="0" t="s">
         <v>76</v>
@@ -1362,10 +1339,10 @@
         <v>67</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="AC5" s="0" t="s">
         <v>81</v>
@@ -1383,10 +1360,10 @@
         <v>82</v>
       </c>
       <c r="AI5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="AK5" s="0" t="s">
         <v>70</v>
@@ -1413,7 +1390,7 @@
         <v>64</v>
       </c>
       <c r="AY5" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ5" s="0" t="s">
         <v>87</v>
@@ -1437,10 +1414,10 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>64</v>
@@ -1483,16 +1460,16 @@
         <v>72</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W6" s="0" t="s">
         <v>76</v>
@@ -1504,11 +1481,11 @@
         <v>67</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC6" s="0" t="s">
         <v>81</v>
@@ -1520,16 +1497,16 @@
         <v>79</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="AK6" s="0" t="s">
         <v>70</v>
@@ -1556,7 +1533,7 @@
         <v>64</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ6" s="0" t="s">
         <v>87</v>
@@ -1580,10 +1557,10 @@
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>64</v>
@@ -1626,16 +1603,16 @@
         <v>72</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W7" s="0" t="s">
         <v>76</v>
@@ -1647,11 +1624,11 @@
         <v>67</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA7" s="6"/>
       <c r="AB7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC7" s="0" t="s">
         <v>81</v>
@@ -1663,16 +1640,16 @@
         <v>79</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI7" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="AJ7" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="AK7" s="0" t="s">
         <v>70</v>
@@ -1699,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ7" s="0" t="s">
         <v>87</v>
@@ -1722,10 +1699,10 @@
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>64</v>
@@ -1768,20 +1745,20 @@
         <v>72</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="T8" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="U8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X8" s="0" t="s">
         <v>77</v>
@@ -1790,11 +1767,11 @@
         <v>67</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA8" s="6"/>
       <c r="AB8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC8" s="0" t="s">
         <v>81</v>
@@ -1812,10 +1789,10 @@
         <v>82</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK8" s="0" t="s">
         <v>70</v>
@@ -1842,7 +1819,7 @@
         <v>64</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ8" s="0" t="s">
         <v>87</v>
@@ -1865,10 +1842,10 @@
     </row>
     <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>64</v>
@@ -1911,20 +1888,20 @@
         <v>72</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X9" s="0" t="s">
         <v>77</v>
@@ -1933,11 +1910,11 @@
         <v>67</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA9" s="6"/>
       <c r="AB9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC9" s="0" t="s">
         <v>81</v>
@@ -1949,16 +1926,16 @@
         <v>79</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK9" s="0" t="s">
         <v>70</v>
@@ -1985,7 +1962,7 @@
         <v>64</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ9" s="0" t="s">
         <v>87</v>
@@ -2008,10 +1985,10 @@
     </row>
     <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>64</v>
@@ -2054,20 +2031,20 @@
         <v>72</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X10" s="0" t="s">
         <v>77</v>
@@ -2076,11 +2053,11 @@
         <v>67</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA10" s="6"/>
       <c r="AB10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC10" s="0" t="s">
         <v>81</v>
@@ -2092,16 +2069,16 @@
         <v>79</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK10" s="0" t="s">
         <v>70</v>
@@ -2128,7 +2105,7 @@
         <v>64</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ10" s="0" t="s">
         <v>87</v>
@@ -2150,7 +2127,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM10"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2158,6 +2134,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>